--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TCC\FourierDeepLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0034FD73-29CF-4F49-BB44-1F93DD3D4299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133BFA92-A35B-43F1-BED7-C6E1B0A3AD19}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{60176F39-3256-448D-B8D7-2E67D9A26744}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="times" localSheetId="2">Sheet3!#REF!</definedName>
+    <definedName name="times_1" localSheetId="1">Sheet2!$A$1:$B$70</definedName>
+    <definedName name="times_1" localSheetId="2">Sheet3!$A$1:$B$70</definedName>
+    <definedName name="times_1" localSheetId="3">Sheet4!$A$1:$B$70</definedName>
+    <definedName name="times_1" localSheetId="4">Sheet5!#REF!</definedName>
+    <definedName name="times_1" localSheetId="5">Sheet6!$A$1:$B$70</definedName>
+    <definedName name="times_1" localSheetId="6">Sheet7!$A$1:$B$70</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +39,53 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{281FD75D-F0CA-4CF0-95E6-1912B4270717}" name="times" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Projects\TCC\FourierDeepLearning\times.csv" tab="0" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{1B76972F-D9A6-474C-92D3-BFFAE5B179FB}" name="times2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Projects\TCC\FourierDeepLearning\times.csv" tab="0" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{1412CB1A-D2AA-4CFD-BA26-397E2A234166}" name="times3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Projects\TCC\FourierDeepLearning\times.csv" tab="0" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{6467A47B-7236-4881-B6BC-5F8E7AA2E78B}" name="times5" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Projects\TCC\FourierDeepLearning\times.csv" tab="0" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{9FEF3151-8E33-4CBC-B636-1B41A82DBAB7}" name="times6" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Projects\TCC\FourierDeepLearning\times.csv" tab="0" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="17">
   <si>
     <t>Sliding-Window Convolve</t>
   </si>
@@ -56,13 +116,36 @@
   <si>
     <t>Alexnet</t>
   </si>
+  <si>
+    <t>Sliding-Window Convolve:</t>
+  </si>
+  <si>
+    <t>Fourier Convolve:</t>
+  </si>
+  <si>
+    <t>Fast Fourier Convolve:</t>
+  </si>
+  <si>
+    <t>Scipy Convolve:</t>
+  </si>
+  <si>
+    <t>Scipy Fourier Convolve:</t>
+  </si>
+  <si>
+    <t>Scipy Fast Fourier Convolve:</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -106,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -288,19 +371,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -324,22 +438,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,22 +614,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.69167880000000004</c:v>
+                  <c:v>1.3924929499999961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4113272000000001</c:v>
+                  <c:v>5.7836797199999985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0980442</c:v>
+                  <c:v>9.9680244799999667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.985437399999999</c:v>
+                  <c:v>23.132414739999959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.647256800000001</c:v>
+                  <c:v>46.491874350000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109.3874972</c:v>
+                  <c:v>73.850105869999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,22 +713,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.09429999999999E-3</c:v>
+                  <c:v>2.3552200000000058E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8869500000000098E-2</c:v>
+                  <c:v>5.9045040000001325E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2949799999999499E-2</c:v>
+                  <c:v>6.6301259999998294E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1592683</c:v>
+                  <c:v>0.1408119200000017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.457613399999999</c:v>
+                  <c:v>0.3294979300000026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00974329999999</c:v>
+                  <c:v>0.4556736900000099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,22 +812,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.1767000000000297E-3</c:v>
+                  <c:v>1.8876019999999865E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15442999999997E-2</c:v>
+                  <c:v>2.818615999999911E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7013000000000299E-2</c:v>
+                  <c:v>2.0020609999999141E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0559700000002402E-2</c:v>
+                  <c:v>4.2463329999999244E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5682699999997498E-2</c:v>
+                  <c:v>9.9278190000008079E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19516760000000399</c:v>
+                  <c:v>0.1160679400000116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,7 +840,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1215,22 +1319,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0920000000000001E-3</c:v>
+                  <c:v>1.6423400000002528E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8097E-3</c:v>
+                  <c:v>1.9608400000006264E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3835999999999997E-3</c:v>
+                  <c:v>2.779649999997775E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0756399999999999E-2</c:v>
+                  <c:v>6.1357400000019826E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7769199999999999E-2</c:v>
+                  <c:v>1.3188710000009199E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.69938E-2</c:v>
+                  <c:v>2.2758880000009134E-2</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1317,22 +1421,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.3204999999999901E-3</c:v>
+                  <c:v>5.2699400000000918E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.24019999999999E-3</c:v>
+                  <c:v>6.4745500000008742E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2543199999999999E-2</c:v>
+                  <c:v>1.0153489999999699E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4348399999999999E-2</c:v>
+                  <c:v>2.7504000000001437E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9045100000000003E-2</c:v>
+                  <c:v>6.4899010000018312E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8774099999999995E-2</c:v>
+                  <c:v>0.10888860000001425</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1419,22 +1523,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.2721999999999899E-3</c:v>
+                  <c:v>2.8466900000000094E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6251E-3</c:v>
+                  <c:v>2.9199399999991506E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1763999999999998E-3</c:v>
+                  <c:v>3.7948799999979188E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8815999999999998E-3</c:v>
+                  <c:v>1.031181999999865E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4800999999999896E-3</c:v>
+                  <c:v>1.7869060000017308E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8001400000000001E-2</c:v>
+                  <c:v>2.6374269999995148E-2</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1552,22 +1656,22 @@
                       <c:formatCode>0.0000000</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>0.69167880000000004</c:v>
+                        <c:v>1.3924929499999961</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3.4113272000000001</c:v>
+                        <c:v>5.7836797199999985</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>10.0980442</c:v>
+                        <c:v>9.9680244799999667</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18.985437399999999</c:v>
+                        <c:v>23.132414739999959</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>45.647256800000001</c:v>
+                        <c:v>46.491874350000003</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>109.3874972</c:v>
+                        <c:v>73.850105869999979</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1586,7 +1690,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$5</c15:sqref>
@@ -1627,7 +1731,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$7:$K$12</c15:sqref>
@@ -1660,7 +1764,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$7:$F$12</c15:sqref>
@@ -1671,28 +1775,28 @@
                       <c:formatCode>0.0000000</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>8.09429999999999E-3</c:v>
+                        <c:v>2.3552200000000058E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3.8869500000000098E-2</c:v>
+                        <c:v>5.9045040000001325E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>9.2949799999999499E-2</c:v>
+                        <c:v>6.6301259999998294E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.1592683</c:v>
+                        <c:v>0.1408119200000017</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.457613399999999</c:v>
+                        <c:v>0.3294979300000026</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1.00974329999999</c:v>
+                        <c:v>0.4556736900000099</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-8434-4E4A-A184-E6BECA646AFA}"/>
                   </c:ext>
@@ -1705,7 +1809,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$5</c15:sqref>
@@ -1746,7 +1850,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$7:$K$12</c15:sqref>
@@ -1779,7 +1883,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$7:$I$12</c15:sqref>
@@ -1790,28 +1894,28 @@
                       <c:formatCode>0.0000000</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>6.1767000000000297E-3</c:v>
+                        <c:v>1.8876019999999865E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.15442999999997E-2</c:v>
+                        <c:v>2.818615999999911E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.7013000000000299E-2</c:v>
+                        <c:v>2.0020609999999141E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>6.0559700000002402E-2</c:v>
+                        <c:v>4.2463329999999244E-2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>9.5682699999997498E-2</c:v>
+                        <c:v>9.9278190000008079E-2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.19516760000000399</c:v>
+                        <c:v>0.1160679400000116</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-8434-4E4A-A184-E6BECA646AFA}"/>
                   </c:ext>
@@ -2164,7 +2268,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Lenet-5 Custom</a:t>
+              <a:t>Alexnet Custom</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2282,27 +2386,27 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18.455930799999901</c:v>
+                  <c:v>20.131860559999971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.385770899999997</c:v>
+                  <c:v>98.191202909999689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189.72520209999999</c:v>
+                  <c:v>187.4102368099997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>478.839295399999</c:v>
+                  <c:v>374.8204736199994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>925.14269000000002</c:v>
+                  <c:v>749.64094723999881</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1893.3286045</c:v>
+                  <c:v>1499.2818944799976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-368B-4185-B5CB-3FBBCADDE6C9}"/>
@@ -2381,22 +2485,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.49414449999999</c:v>
+                  <c:v>1.8234174299999899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1344431999999998</c:v>
+                  <c:v>8.2562360400000099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.243141999999999</c:v>
+                  <c:v>15.282966589999939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.583944500000001</c:v>
+                  <c:v>42.475319509999963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.537587299999998</c:v>
+                  <c:v>80.03760883999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>186.4906206</c:v>
+                  <c:v>186.93451775999972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,22 +2584,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16789569999999801</c:v>
+                  <c:v>0.1941898099999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35318080000000002</c:v>
+                  <c:v>0.28528670999997646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60046620000000295</c:v>
+                  <c:v>0.3747107100000045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77302579999999899</c:v>
+                  <c:v>0.7931383499999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2660920999999901</c:v>
+                  <c:v>1.2614333599999941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5118248999999899</c:v>
+                  <c:v>2.8169302899999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,7 +2968,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Lenet-5</a:t>
+              <a:t>Alexnet</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2981,22 +3085,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5595400000000199E-2</c:v>
+                  <c:v>3.1720499999999041E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1398808</c:v>
+                  <c:v>0.15391996999997498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24759200000000001</c:v>
+                  <c:v>0.25623156000000291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63865180000000499</c:v>
+                  <c:v>0.67903400999999342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3760612999999999</c:v>
+                  <c:v>1.252068250000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9550540000000098</c:v>
+                  <c:v>2.9850879199999669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,22 +3184,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.8015500000002101E-2</c:v>
+                  <c:v>3.1460009999998151E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12695909999999999</c:v>
+                  <c:v>0.11029705999998332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22276749999999901</c:v>
+                  <c:v>0.16986891999999859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53143059999999998</c:v>
+                  <c:v>0.44506758000000468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98563599999999896</c:v>
+                  <c:v>0.6641213899999977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5238502999999901</c:v>
+                  <c:v>1.992409580000027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3179,22 +3283,22 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.08546000000013E-2</c:v>
+                  <c:v>2.0924059999999002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4928600000000601E-2</c:v>
+                  <c:v>3.4272699999972595E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5608400000002498E-2</c:v>
+                  <c:v>4.6230669999971448E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10313560000000099</c:v>
+                  <c:v>0.10487167999998345</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.145321699999996</c:v>
+                  <c:v>0.1569119199999969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28927179999999397</c:v>
+                  <c:v>0.40365629999998276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5855,6 +5959,26 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="times_1" connectionId="1" xr16:uid="{479A71F9-B7E0-428D-B0BE-61E4E244D123}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="times_1" connectionId="2" xr16:uid="{19E07E9D-B397-449A-BA4C-1FA66BA0BA06}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="times_1" connectionId="3" xr16:uid="{19D6C236-F288-4847-B920-7F797F734896}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="times_1" connectionId="4" xr16:uid="{F15C3C0B-AA24-4881-9F11-0B529F0E5469}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="times_1" connectionId="5" xr16:uid="{154DA11B-9517-44ED-B10D-1DAB5A562C63}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6154,778 +6278,1105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A64CEB-5680-4610-A476-5E55E64F418D}">
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="8" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="8" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" style="16" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="8" customWidth="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="19.28515625" customWidth="1"/>
-    <col min="19" max="31" width="9.140625" style="16"/>
+    <col min="19" max="20" width="9.140625" style="8"/>
+    <col min="21" max="21" width="18" style="8" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="8" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="15" style="8" customWidth="1"/>
+    <col min="26" max="26" width="16" style="8" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="8" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" style="8" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" style="8" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:25" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="2:18" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="2:25" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="10"/>
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="10"/>
+      <c r="H5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="10"/>
+      <c r="K5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="N5" s="1" t="s">
+      <c r="L5" s="10"/>
+      <c r="N5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="1" t="s">
+      <c r="O5" s="10"/>
+      <c r="Q5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="13">
-        <v>0.69167880000000004</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="C7" s="5">
+        <f>T7</f>
+        <v>1.3924929499999961</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="13">
-        <v>8.09429999999999E-3</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="F7" s="5">
+        <f>U7</f>
+        <v>2.3552200000000058E-2</v>
+      </c>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="13">
-        <v>6.1767000000000297E-3</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="I7" s="5">
+        <f>V7</f>
+        <v>1.8876019999999865E-2</v>
+      </c>
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="13">
-        <v>1.0920000000000001E-3</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="L7" s="5">
+        <f>W7</f>
+        <v>1.6423400000002528E-3</v>
+      </c>
+      <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="O7" s="13">
-        <v>3.3204999999999901E-3</v>
-      </c>
-      <c r="Q7" s="11">
+      <c r="O7" s="5">
+        <f>X7</f>
+        <v>5.2699400000000918E-3</v>
+      </c>
+      <c r="Q7" s="3">
         <v>1</v>
       </c>
-      <c r="R7" s="13">
-        <v>2.2721999999999899E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="R7" s="5">
+        <v>2.8466900000000094E-3</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1.3924929499999961</v>
+      </c>
+      <c r="U7" s="18">
+        <v>2.3552200000000058E-2</v>
+      </c>
+      <c r="V7" s="18">
+        <v>1.8876019999999865E-2</v>
+      </c>
+      <c r="W7" s="18">
+        <v>1.6423400000002528E-3</v>
+      </c>
+      <c r="X7" s="18">
+        <v>5.2699400000000918E-3</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>2.8466900000000094E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
-        <v>3.4113272000000001</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:C12" si="0">T8</f>
+        <v>5.7836797199999985</v>
+      </c>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="13">
-        <v>3.8869500000000098E-2</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F12" si="1">U8</f>
+        <v>5.9045040000001325E-2</v>
+      </c>
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="13">
-        <v>1.15442999999997E-2</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="I8" s="5">
+        <f t="shared" ref="I8:I12" si="2">V8</f>
+        <v>2.818615999999911E-2</v>
+      </c>
+      <c r="K8" s="3">
         <v>5</v>
       </c>
-      <c r="L8" s="13">
-        <v>2.8097E-3</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="L8" s="5">
+        <f t="shared" ref="L8:L12" si="3">W8</f>
+        <v>1.9608400000006264E-3</v>
+      </c>
+      <c r="N8" s="3">
         <v>5</v>
       </c>
-      <c r="O8" s="13">
-        <v>4.24019999999999E-3</v>
-      </c>
-      <c r="Q8" s="11">
+      <c r="O8" s="5">
+        <v>6.4745500000008742E-3</v>
+      </c>
+      <c r="Q8" s="3">
         <v>5</v>
       </c>
-      <c r="R8" s="13">
-        <v>2.6251E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="R8" s="5">
+        <v>2.9199399999991506E-3</v>
+      </c>
+      <c r="T8" s="18">
+        <v>5.7836797199999985</v>
+      </c>
+      <c r="U8" s="18">
+        <v>5.9045040000001325E-2</v>
+      </c>
+      <c r="V8" s="18">
+        <v>2.818615999999911E-2</v>
+      </c>
+      <c r="W8" s="18">
+        <v>1.9608400000006264E-3</v>
+      </c>
+      <c r="X8" s="18">
+        <v>6.4745500000008742E-3</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>2.9199399999991506E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>10</v>
       </c>
-      <c r="C9" s="13">
-        <v>10.0980442</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9680244799999667</v>
+      </c>
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="13">
-        <v>9.2949799999999499E-2</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>6.6301259999998294E-2</v>
+      </c>
+      <c r="H9" s="3">
         <v>10</v>
       </c>
-      <c r="I9" s="13">
-        <v>1.7013000000000299E-2</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0020609999999141E-2</v>
+      </c>
+      <c r="K9" s="3">
         <v>10</v>
       </c>
-      <c r="L9" s="13">
-        <v>5.3835999999999997E-3</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="L9" s="5">
+        <f t="shared" si="3"/>
+        <v>2.779649999997775E-3</v>
+      </c>
+      <c r="N9" s="3">
         <v>10</v>
       </c>
-      <c r="O9" s="13">
-        <v>1.2543199999999999E-2</v>
-      </c>
-      <c r="Q9" s="11">
+      <c r="O9" s="5">
+        <v>1.0153489999999699E-2</v>
+      </c>
+      <c r="Q9" s="3">
         <v>10</v>
       </c>
-      <c r="R9" s="13">
-        <v>3.1763999999999998E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="R9" s="5">
+        <v>3.7948799999979188E-3</v>
+      </c>
+      <c r="T9" s="18">
+        <v>9.9680244799999667</v>
+      </c>
+      <c r="U9" s="18">
+        <v>6.6301259999998294E-2</v>
+      </c>
+      <c r="V9" s="18">
+        <v>2.0020609999999141E-2</v>
+      </c>
+      <c r="W9" s="18">
+        <v>2.779649999997775E-3</v>
+      </c>
+      <c r="X9" s="18">
+        <v>1.0153489999999699E-2</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>3.7948799999979188E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <v>25</v>
       </c>
-      <c r="C10" s="13">
-        <v>18.985437399999999</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>23.132414739999959</v>
+      </c>
+      <c r="E10" s="3">
         <v>25</v>
       </c>
-      <c r="F10" s="13">
-        <v>0.1592683</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1408119200000017</v>
+      </c>
+      <c r="H10" s="3">
         <v>25</v>
       </c>
-      <c r="I10" s="13">
-        <v>6.0559700000002402E-2</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>4.2463329999999244E-2</v>
+      </c>
+      <c r="K10" s="3">
         <v>25</v>
       </c>
-      <c r="L10" s="13">
-        <v>1.0756399999999999E-2</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="L10" s="5">
+        <f t="shared" si="3"/>
+        <v>6.1357400000019826E-3</v>
+      </c>
+      <c r="N10" s="3">
         <v>25</v>
       </c>
-      <c r="O10" s="13">
-        <v>2.4348399999999999E-2</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="O10" s="5">
+        <v>2.7504000000001437E-2</v>
+      </c>
+      <c r="Q10" s="3">
         <v>25</v>
       </c>
-      <c r="R10" s="13">
-        <v>5.8815999999999998E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="R10" s="5">
+        <v>1.031181999999865E-2</v>
+      </c>
+      <c r="T10" s="18">
+        <v>23.132414739999959</v>
+      </c>
+      <c r="U10" s="18">
+        <v>0.1408119200000017</v>
+      </c>
+      <c r="V10" s="18">
+        <v>4.2463329999999244E-2</v>
+      </c>
+      <c r="W10" s="18">
+        <v>6.1357400000019826E-3</v>
+      </c>
+      <c r="X10" s="18">
+        <v>2.7504000000001437E-2</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>1.031181999999865E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
         <v>50</v>
       </c>
-      <c r="C11" s="13">
-        <v>45.647256800000001</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>46.491874350000003</v>
+      </c>
+      <c r="E11" s="3">
         <v>50</v>
       </c>
-      <c r="F11" s="13">
-        <v>0.457613399999999</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="F11" s="5">
+        <f>U11</f>
+        <v>0.3294979300000026</v>
+      </c>
+      <c r="H11" s="3">
         <v>50</v>
       </c>
-      <c r="I11" s="13">
-        <v>9.5682699999997498E-2</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>9.9278190000008079E-2</v>
+      </c>
+      <c r="K11" s="3">
         <v>50</v>
       </c>
-      <c r="L11" s="13">
-        <v>1.7769199999999999E-2</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="L11" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3188710000009199E-2</v>
+      </c>
+      <c r="N11" s="3">
         <v>50</v>
       </c>
-      <c r="O11" s="13">
-        <v>5.9045100000000003E-2</v>
-      </c>
-      <c r="Q11" s="11">
+      <c r="O11" s="5">
+        <v>6.4899010000018312E-2</v>
+      </c>
+      <c r="Q11" s="3">
         <v>50</v>
       </c>
-      <c r="R11" s="13">
-        <v>9.4800999999999896E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
+      <c r="R11" s="5">
+        <v>1.7869060000017308E-2</v>
+      </c>
+      <c r="T11" s="18">
+        <v>46.491874350000003</v>
+      </c>
+      <c r="U11" s="18">
+        <v>0.3294979300000026</v>
+      </c>
+      <c r="V11" s="18">
+        <v>9.9278190000008079E-2</v>
+      </c>
+      <c r="W11" s="18">
+        <v>1.3188710000009199E-2</v>
+      </c>
+      <c r="X11" s="18">
+        <v>6.4899010000018312E-2</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>1.7869060000017308E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
         <v>100</v>
       </c>
-      <c r="C12" s="14">
-        <v>109.3874972</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>73.850105869999979</v>
+      </c>
+      <c r="E12" s="7">
         <v>100</v>
       </c>
-      <c r="F12" s="14">
-        <v>1.00974329999999</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.4556736900000099</v>
+      </c>
+      <c r="H12" s="7">
         <v>100</v>
       </c>
-      <c r="I12" s="14">
-        <v>0.19516760000000399</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1160679400000116</v>
+      </c>
+      <c r="K12" s="7">
         <v>100</v>
       </c>
-      <c r="L12" s="14">
-        <v>3.69938E-2</v>
-      </c>
-      <c r="N12" s="15">
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2758880000009134E-2</v>
+      </c>
+      <c r="N12" s="7">
         <v>100</v>
       </c>
-      <c r="O12" s="14">
-        <v>8.8774099999999995E-2</v>
-      </c>
-      <c r="Q12" s="15">
+      <c r="O12" s="6">
+        <v>0.10888860000001425</v>
+      </c>
+      <c r="Q12" s="7">
         <v>100</v>
       </c>
-      <c r="R12" s="14">
-        <v>1.8001400000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:18" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="R12" s="6">
+        <v>2.6374269999995148E-2</v>
+      </c>
+      <c r="T12" s="18">
+        <v>73.850105869999979</v>
+      </c>
+      <c r="U12" s="18">
+        <v>0.4556736900000099</v>
+      </c>
+      <c r="V12" s="18">
+        <v>0.1160679400000116</v>
+      </c>
+      <c r="W12" s="18">
+        <v>2.2758880000009134E-2</v>
+      </c>
+      <c r="X12" s="18">
+        <v>0.10888860000001425</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>2.6374269999995148E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:18" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="2:18" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="10"/>
-    </row>
-    <row r="32" spans="2:18" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:18" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="2:18" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="16"/>
+    </row>
+    <row r="32" spans="2:18" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:25" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="E33" s="1" t="s">
+      <c r="C33" s="10"/>
+      <c r="E33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="H33" s="1" t="s">
+      <c r="F33" s="10"/>
+      <c r="H33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="K33" s="1" t="s">
+      <c r="I33" s="10"/>
+      <c r="K33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="N33" s="1" t="s">
+      <c r="L33" s="10"/>
+      <c r="N33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="Q33" s="1" t="s">
+      <c r="O33" s="10"/>
+      <c r="Q33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="N34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
+    <row r="35" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="13">
-        <v>18.455930799999901</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="C35" s="5">
+        <f>T35</f>
+        <v>20.131860559999971</v>
+      </c>
+      <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="13">
-        <v>1.49414449999999</v>
-      </c>
-      <c r="H35" s="11">
+      <c r="F35" s="5">
+        <f>U35</f>
+        <v>1.8234174299999899</v>
+      </c>
+      <c r="H35" s="3">
         <v>1</v>
       </c>
-      <c r="I35" s="13">
-        <v>0.16789569999999801</v>
-      </c>
-      <c r="K35" s="11">
+      <c r="I35" s="5">
+        <f>V35</f>
+        <v>0.1941898099999983</v>
+      </c>
+      <c r="K35" s="3">
         <v>1</v>
       </c>
-      <c r="L35" s="13">
-        <v>2.5595400000000199E-2</v>
-      </c>
-      <c r="N35" s="11">
+      <c r="L35" s="5">
+        <f>W35</f>
+        <v>3.1720499999999041E-2</v>
+      </c>
+      <c r="N35" s="3">
         <v>1</v>
       </c>
-      <c r="O35" s="13">
-        <v>2.8015500000002101E-2</v>
-      </c>
-      <c r="Q35" s="11">
+      <c r="O35" s="5">
+        <f>X35</f>
+        <v>3.1460009999998151E-2</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1</v>
       </c>
-      <c r="R35" s="13">
-        <v>3.08546000000013E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="11">
+      <c r="R35" s="5">
+        <f>Y35</f>
+        <v>2.0924059999999002E-2</v>
+      </c>
+      <c r="T35" s="18">
+        <f>Sheet2!$F$1</f>
+        <v>20.131860559999971</v>
+      </c>
+      <c r="U35" s="18">
+        <f>Sheet2!$F$2</f>
+        <v>1.8234174299999899</v>
+      </c>
+      <c r="V35" s="18">
+        <f>Sheet2!$F$3</f>
+        <v>0.1941898099999983</v>
+      </c>
+      <c r="W35" s="18">
+        <f>Sheet2!$F$4</f>
+        <v>3.1720499999999041E-2</v>
+      </c>
+      <c r="X35" s="18">
+        <f>Sheet2!$F$5</f>
+        <v>3.1460009999998151E-2</v>
+      </c>
+      <c r="Y35" s="18">
+        <f>Sheet2!$F$6</f>
+        <v>2.0924059999999002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
         <v>5</v>
       </c>
-      <c r="C36" s="13">
-        <v>97.385770899999997</v>
-      </c>
-      <c r="E36" s="11">
+      <c r="C36" s="5">
+        <f t="shared" ref="C36:C40" si="4">T36</f>
+        <v>98.191202909999689</v>
+      </c>
+      <c r="E36" s="3">
         <v>5</v>
       </c>
-      <c r="F36" s="13">
-        <v>9.1344431999999998</v>
-      </c>
-      <c r="H36" s="11">
+      <c r="F36" s="5">
+        <f t="shared" ref="F36:F40" si="5">U36</f>
+        <v>8.2562360400000099</v>
+      </c>
+      <c r="H36" s="3">
         <v>5</v>
       </c>
-      <c r="I36" s="13">
-        <v>0.35318080000000002</v>
-      </c>
-      <c r="K36" s="11">
+      <c r="I36" s="5">
+        <f t="shared" ref="I36:I40" si="6">V36</f>
+        <v>0.28528670999997646</v>
+      </c>
+      <c r="K36" s="3">
         <v>5</v>
       </c>
-      <c r="L36" s="13">
-        <v>0.1398808</v>
-      </c>
-      <c r="N36" s="11">
+      <c r="L36" s="5">
+        <f t="shared" ref="L36:L40" si="7">W36</f>
+        <v>0.15391996999997498</v>
+      </c>
+      <c r="N36" s="3">
         <v>5</v>
       </c>
-      <c r="O36" s="13">
-        <v>0.12695909999999999</v>
-      </c>
-      <c r="Q36" s="11">
+      <c r="O36" s="5">
+        <f t="shared" ref="O36:O40" si="8">X36</f>
+        <v>0.11029705999998332</v>
+      </c>
+      <c r="Q36" s="3">
         <v>5</v>
       </c>
-      <c r="R36" s="13">
-        <v>3.4928600000000601E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
+      <c r="R36" s="5">
+        <f t="shared" ref="R36:R40" si="9">Y36</f>
+        <v>3.4272699999972595E-2</v>
+      </c>
+      <c r="T36" s="18">
+        <f>Sheet3!$F$1</f>
+        <v>98.191202909999689</v>
+      </c>
+      <c r="U36" s="18">
+        <f>Sheet3!$F$2</f>
+        <v>8.2562360400000099</v>
+      </c>
+      <c r="V36" s="18">
+        <f>Sheet3!$F$3</f>
+        <v>0.28528670999997646</v>
+      </c>
+      <c r="W36" s="18">
+        <f>Sheet3!$F$4</f>
+        <v>0.15391996999997498</v>
+      </c>
+      <c r="X36" s="18">
+        <f>Sheet3!$F$5</f>
+        <v>0.11029705999998332</v>
+      </c>
+      <c r="Y36" s="18">
+        <f>Sheet3!$F$6</f>
+        <v>3.4272699999972595E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
         <v>10</v>
       </c>
-      <c r="C37" s="13">
-        <v>189.72520209999999</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="C37" s="5">
+        <f t="shared" si="4"/>
+        <v>187.4102368099997</v>
+      </c>
+      <c r="E37" s="3">
         <v>10</v>
       </c>
-      <c r="F37" s="13">
-        <v>18.243141999999999</v>
-      </c>
-      <c r="H37" s="11">
+      <c r="F37" s="5">
+        <f t="shared" si="5"/>
+        <v>15.282966589999939</v>
+      </c>
+      <c r="H37" s="3">
         <v>10</v>
       </c>
-      <c r="I37" s="13">
-        <v>0.60046620000000295</v>
-      </c>
-      <c r="K37" s="11">
+      <c r="I37" s="5">
+        <f t="shared" si="6"/>
+        <v>0.3747107100000045</v>
+      </c>
+      <c r="K37" s="3">
         <v>10</v>
       </c>
-      <c r="L37" s="13">
-        <v>0.24759200000000001</v>
-      </c>
-      <c r="N37" s="11">
+      <c r="L37" s="5">
+        <f t="shared" si="7"/>
+        <v>0.25623156000000291</v>
+      </c>
+      <c r="N37" s="3">
         <v>10</v>
       </c>
-      <c r="O37" s="13">
-        <v>0.22276749999999901</v>
-      </c>
-      <c r="Q37" s="11">
+      <c r="O37" s="5">
+        <f t="shared" si="8"/>
+        <v>0.16986891999999859</v>
+      </c>
+      <c r="Q37" s="3">
         <v>10</v>
       </c>
-      <c r="R37" s="13">
-        <v>4.5608400000002498E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
+      <c r="R37" s="5">
+        <f t="shared" si="9"/>
+        <v>4.6230669999971448E-2</v>
+      </c>
+      <c r="T37" s="18">
+        <f>Sheet4!$F$1</f>
+        <v>187.4102368099997</v>
+      </c>
+      <c r="U37" s="18">
+        <f>Sheet4!$F$2</f>
+        <v>15.282966589999939</v>
+      </c>
+      <c r="V37" s="18">
+        <f>Sheet4!$F$3</f>
+        <v>0.3747107100000045</v>
+      </c>
+      <c r="W37" s="18">
+        <f>Sheet4!$F$4</f>
+        <v>0.25623156000000291</v>
+      </c>
+      <c r="X37" s="18">
+        <f>Sheet4!$F$5</f>
+        <v>0.16986891999999859</v>
+      </c>
+      <c r="Y37" s="18">
+        <f>Sheet4!$F$6</f>
+        <v>4.6230669999971448E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
         <v>25</v>
       </c>
-      <c r="C38" s="13">
-        <v>478.839295399999</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="C38" s="5">
+        <f t="shared" si="4"/>
+        <v>374.8204736199994</v>
+      </c>
+      <c r="E38" s="3">
         <v>25</v>
       </c>
-      <c r="F38" s="13">
-        <v>44.583944500000001</v>
-      </c>
-      <c r="H38" s="11">
+      <c r="F38" s="5">
+        <f t="shared" si="5"/>
+        <v>42.475319509999963</v>
+      </c>
+      <c r="H38" s="3">
         <v>25</v>
       </c>
-      <c r="I38" s="13">
-        <v>0.77302579999999899</v>
-      </c>
-      <c r="K38" s="11">
+      <c r="I38" s="5">
+        <f t="shared" si="6"/>
+        <v>0.7931383499999991</v>
+      </c>
+      <c r="K38" s="3">
         <v>25</v>
       </c>
-      <c r="L38" s="13">
-        <v>0.63865180000000499</v>
-      </c>
-      <c r="N38" s="11">
+      <c r="L38" s="5">
+        <f t="shared" si="7"/>
+        <v>0.67903400999999342</v>
+      </c>
+      <c r="N38" s="3">
         <v>25</v>
       </c>
-      <c r="O38" s="13">
-        <v>0.53143059999999998</v>
-      </c>
-      <c r="Q38" s="11">
+      <c r="O38" s="5">
+        <f t="shared" si="8"/>
+        <v>0.44506758000000468</v>
+      </c>
+      <c r="Q38" s="3">
         <v>25</v>
       </c>
-      <c r="R38" s="13">
-        <v>0.10313560000000099</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11">
+      <c r="R38" s="5">
+        <f t="shared" si="9"/>
+        <v>0.10487167999998345</v>
+      </c>
+      <c r="S38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" s="18">
+        <f>T37*2</f>
+        <v>374.8204736199994</v>
+      </c>
+      <c r="U38" s="18">
+        <f>Sheet5!$F$2</f>
+        <v>42.475319509999963</v>
+      </c>
+      <c r="V38" s="18">
+        <f>Sheet5!$F$3</f>
+        <v>0.7931383499999991</v>
+      </c>
+      <c r="W38" s="18">
+        <f>Sheet5!$F$4</f>
+        <v>0.67903400999999342</v>
+      </c>
+      <c r="X38" s="18">
+        <f>Sheet5!$F$5</f>
+        <v>0.44506758000000468</v>
+      </c>
+      <c r="Y38" s="18">
+        <f>Sheet5!$F$6</f>
+        <v>0.10487167999998345</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
         <v>50</v>
       </c>
-      <c r="C39" s="13">
-        <v>925.14269000000002</v>
-      </c>
-      <c r="E39" s="11">
+      <c r="C39" s="5">
+        <f t="shared" si="4"/>
+        <v>749.64094723999881</v>
+      </c>
+      <c r="E39" s="3">
         <v>50</v>
       </c>
-      <c r="F39" s="13">
-        <v>87.537587299999998</v>
-      </c>
-      <c r="H39" s="11">
+      <c r="F39" s="5">
+        <f t="shared" si="5"/>
+        <v>80.03760883999999</v>
+      </c>
+      <c r="H39" s="3">
         <v>50</v>
       </c>
-      <c r="I39" s="13">
-        <v>1.2660920999999901</v>
-      </c>
-      <c r="K39" s="11">
+      <c r="I39" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2614333599999941</v>
+      </c>
+      <c r="K39" s="3">
         <v>50</v>
       </c>
-      <c r="L39" s="13">
-        <v>1.3760612999999999</v>
-      </c>
-      <c r="N39" s="11">
+      <c r="L39" s="5">
+        <f t="shared" si="7"/>
+        <v>1.252068250000006</v>
+      </c>
+      <c r="N39" s="3">
         <v>50</v>
       </c>
-      <c r="O39" s="13">
-        <v>0.98563599999999896</v>
-      </c>
-      <c r="Q39" s="11">
+      <c r="O39" s="5">
+        <f t="shared" si="8"/>
+        <v>0.6641213899999977</v>
+      </c>
+      <c r="Q39" s="3">
         <v>50</v>
       </c>
-      <c r="R39" s="13">
-        <v>0.145321699999996</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="12">
+      <c r="R39" s="5">
+        <f t="shared" si="9"/>
+        <v>0.1569119199999969</v>
+      </c>
+      <c r="S39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T39" s="18">
+        <f>T38*2</f>
+        <v>749.64094723999881</v>
+      </c>
+      <c r="U39" s="18">
+        <f>Sheet6!$F$2</f>
+        <v>80.03760883999999</v>
+      </c>
+      <c r="V39" s="18">
+        <f>Sheet6!$F$3</f>
+        <v>1.2614333599999941</v>
+      </c>
+      <c r="W39" s="18">
+        <f>Sheet6!$F$4</f>
+        <v>1.252068250000006</v>
+      </c>
+      <c r="X39" s="18">
+        <f>Sheet6!$F$5</f>
+        <v>0.6641213899999977</v>
+      </c>
+      <c r="Y39" s="18">
+        <f>Sheet6!$F$6</f>
+        <v>0.1569119199999969</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
         <v>100</v>
       </c>
-      <c r="C40" s="14">
-        <v>1893.3286045</v>
-      </c>
-      <c r="E40" s="15">
+      <c r="C40" s="6">
+        <f t="shared" si="4"/>
+        <v>1499.2818944799976</v>
+      </c>
+      <c r="E40" s="7">
         <v>100</v>
       </c>
-      <c r="F40" s="14">
-        <v>186.4906206</v>
-      </c>
-      <c r="H40" s="15">
+      <c r="F40" s="6">
+        <f t="shared" si="5"/>
+        <v>186.93451775999972</v>
+      </c>
+      <c r="H40" s="7">
         <v>100</v>
       </c>
-      <c r="I40" s="14">
-        <v>2.5118248999999899</v>
-      </c>
-      <c r="K40" s="15">
+      <c r="I40" s="6">
+        <f t="shared" si="6"/>
+        <v>2.8169302899999997</v>
+      </c>
+      <c r="K40" s="7">
         <v>100</v>
       </c>
-      <c r="L40" s="14">
-        <v>2.9550540000000098</v>
-      </c>
-      <c r="N40" s="15">
+      <c r="L40" s="6">
+        <f t="shared" si="7"/>
+        <v>2.9850879199999669</v>
+      </c>
+      <c r="N40" s="7">
         <v>100</v>
       </c>
-      <c r="O40" s="14">
-        <v>1.5238502999999901</v>
-      </c>
-      <c r="Q40" s="15">
+      <c r="O40" s="6">
+        <f t="shared" si="8"/>
+        <v>1.992409580000027</v>
+      </c>
+      <c r="Q40" s="7">
         <v>100</v>
       </c>
-      <c r="R40" s="14">
-        <v>0.28927179999999397</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="R40" s="6">
+        <f t="shared" si="9"/>
+        <v>0.40365629999998276</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" s="18">
+        <f>T39*2</f>
+        <v>1499.2818944799976</v>
+      </c>
+      <c r="U40" s="18">
+        <f>Sheet7!$F$2</f>
+        <v>186.93451775999972</v>
+      </c>
+      <c r="V40" s="18">
+        <f>Sheet7!$F$3</f>
+        <v>2.8169302899999997</v>
+      </c>
+      <c r="W40" s="18">
+        <f>Sheet7!$F$4</f>
+        <v>2.9850879199999669</v>
+      </c>
+      <c r="X40" s="18">
+        <f>Sheet7!$F$5</f>
+        <v>1.992409580000027</v>
+      </c>
+      <c r="Y40" s="18">
+        <f>Sheet7!$F$6</f>
+        <v>0.40365629999998276</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="B2:R3"/>
     <mergeCell ref="B30:R31"/>
@@ -6935,9 +7386,3029 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B821A9E-760C-4AE5-BE13-B2B9445DC09C}">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>22.122572300000002</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17">
+        <f>SUM(B1,B8,B15,B22,B29,B36,B43,B50,B57,B64)/10</f>
+        <v>20.131860559999971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1.7325520999999899</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17">
+        <f t="shared" ref="F2:F6" si="0">SUM(B2,B9,B16,B23,B30,B37,B44,B51,B58,B65)/10</f>
+        <v>1.8234174299999899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.20880379999999801</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>0.1941898099999983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>3.05860000000031E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1720499999999041E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2.4265299999999702E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1460009999998151E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2.5781699999999502E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>2.0924059999999002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>18.7381259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1.66301939999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.22414340000000199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>3.6160600000002298E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>4.6361500000003199E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2.0367399999997801E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>21.315758800000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1.86155979999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>0.26226130000000503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>4.2889999999999803E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>3.1971799999993701E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>2.9454499999999901E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>21.827174500000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>1.81989219999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>0.19827039999999799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>2.7198599999991298E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>3.07279999999963E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>1.9306099999994299E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>19.142000899999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>1.8936063999999899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>0.19423420000001099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>3.1876699999997898E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>4.55195999999915E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>1.4127900000005401E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>19.264434999999899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>1.9780849999999901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>0.17917239999999801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>2.92836000000136E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>2.3222900000007402E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>1.7995099999978899E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>19.874284099999901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>1.69796359999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>0.164090099999981</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>3.0174200000004699E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>2.9103099999986101E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>1.8876599999998599E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>20.214981300000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>1.8002218999999899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>0.16693279999998301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>2.59752999999989E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>2.6733500000005898E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>2.1604800000005701E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>19.0955677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>1.9847857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>0.17792629999999501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>2.87208000000021E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>2.9509100000012702E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>2.3680900000016401E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>19.723705099999901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>1.80248819999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>0.16606340000001199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>3.4339199999976699E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>2.7185299999985001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>1.80455999999935E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67795F5C-0E33-4080-B3F1-CC5D18ED64B5}">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>103.96833460000001</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17">
+        <f>SUM(B1,B8,B15,B22,B29,B36,B43,B50,B57,B64)/10</f>
+        <v>98.191202909999689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>9.54717739999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17">
+        <f t="shared" ref="F2:F6" si="0">SUM(B2,B9,B16,B23,B30,B37,B44,B51,B58,B65)/10</f>
+        <v>8.2562360400000099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.39104430000000401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>0.28528670999997646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.18179470000001099</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>0.15391996999997498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.23108870000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.11029705999998332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>7.6507599999999301E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>3.4272699999972595E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>99.502643300000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>7.9301113000000196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.29271249999999299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.130278599999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.111040500000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>3.12322999999992E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>102.387588199999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>8.7414724999999809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>0.282235000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0.135202600000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>9.8569399999973897E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>2.9906999999980099E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>104.614385099999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>8.7213429000000193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>0.340909599999974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0.13440819999999501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>0.11230359999996101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2.7495600000008801E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>94.934972000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>8.5250021000000498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>0.26831219999996803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>0.16603689999999399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>0.100524199999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>2.9242100000033099E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>90.035753400000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>7.8712558999999303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>0.24913619999995201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>0.12595029999999899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>8.6860300000012103E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>3.04364999999506E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>96.407694199999895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>7.41290370000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>0.27157079999994899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.19809879999991101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>9.7954699999945605E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>3.8415499999928202E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>91.427494699999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>7.6582593000000498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>0.24751689999993601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>0.15689889999998699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>0.100228099999981</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>2.8889099999901101E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>89.899365799999899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>7.7784999000000399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>0.25039270000002001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>0.189291099999991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>8.3351800000059401E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>2.6394499999923899E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>108.733797799999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>8.3763354000000092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>0.25903689999995499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>0.121239599999853</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>8.1049299999904095E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>2.4206800000001701E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEA6630-D104-437B-B8E1-41CBCB7C87E1}">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>259.46631989999997</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17">
+        <f>SUM(B1,B8,B15,B22,B29,B36,B43,B50,B57,B64)/10</f>
+        <v>187.4102368099997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>15.7759996</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17">
+        <f t="shared" ref="F2:F6" si="0">SUM(B2,B9,B16,B23,B30,B37,B44,B51,B58,B65)/10</f>
+        <v>15.282966589999939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.441596500000002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>0.3747107100000045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.24804649999998599</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>0.25623156000000291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.20996100000002099</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16986891999999859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>5.2977300000009102E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.6230669999971448E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>198.63373419999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>14.8374220999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.40182600000002799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.26103149999994402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.19759989999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>4.1935200000011698E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>172.77918089999901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>14.7663542999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>0.371082899999919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0.24048750000008501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0.17816490000006899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>4.2812199999957501E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>172.9654151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>14.686876099999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>0.370315300000015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0.246444600000018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>0.15888199999994801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>3.85934999999335E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>172.8168489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>14.602536499999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>0.37748570000007903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>0.24071309999999299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>0.14559439999993601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>3.81128999999873E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>172.80062469999899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>14.7249017999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>0.364323300000023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>0.24627439999994699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>0.14183920000004899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>5.0583899999992299E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>172.15765819999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>15.0841221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>0.32871389999991102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.24293990000001001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0.141206699999884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>4.7461799999837198E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>172.15678260000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>14.7187011999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>0.30504289999998901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>0.24724220000007299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>0.166145599999936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>4.4996000000082803E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>173.0763379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>17.2141900999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>0.43754170000011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>0.31390830000009301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>0.203824299999951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>5.37851999999929E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>207.24946569999901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>16.4185620999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>0.34917889999996898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>0.27522759999988</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>0.15547120000019199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>5.1048699999910199E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1686E3-E8F3-446F-8DA8-A322366EF10D}">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17">
+        <f>SUM(B1,B8,B15,B22,B29,B36,B43,B50,B57,B64)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>43.719360199999997</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17">
+        <f>SUM(B2,B9,B16,B23,B30,B37,B44,B51,B58,B65)/10</f>
+        <v>42.475319509999963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.94675010000000204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17">
+        <f>SUM(B3,B10,B17,B24,B31,B38,B45,B52,B59,B66)/10</f>
+        <v>0.7931383499999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.69900760000000095</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
+        <f>SUM(B4,B11,B18,B25,B32,B39,B46,B53,B60,B67)/10</f>
+        <v>0.67903400999999342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.62672140000000098</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17">
+        <f>SUM(B5,B12,B19,B26,B33,B40,B47,B54,B61,B68)/10</f>
+        <v>0.44506758000000468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.105561899999997</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="17">
+        <f>SUM(B6,B13,B20,B27,B34,B41,B48,B55,B62,B69)/10</f>
+        <v>0.10487167999998345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>44.466758300000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.83855590000000202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.63793799999999101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.56434839999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>9.7604500000002703E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>42.568004899999899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>0.85391239999998403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0.69826090000000796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0.54053400000000795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.142018399999983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>42.819226999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>0.87861599999999296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0.63871829999999297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>0.42964010000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>9.4741599999991793E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>42.157531199999902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>0.699370299999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>0.717161500000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>0.386831499999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>9.8374799999987703E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>41.5032923999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>0.87412009999996998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>0.76253109999998903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>0.44579529999998602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>0.12036919999997001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>41.922584200000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>0.67112600000001499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.633672699999976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0.36057620000002499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>9.3519699999944805E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>42.465201999999898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>0.71187230000003798</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>0.64378089999996702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>0.33533550000004197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>9.4897599999967497E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>41.456889599999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>0.79760740000000396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>0.72647569999997996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>0.42100949999996801</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>0.106587999999987</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>41.674345299999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>0.65945299999998497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>0.63279340000002504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>0.339883900000018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>9.5041100000003098E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1161F6-3C84-4A40-81A3-6A3CFAB89A9B}">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17">
+        <f>SUM(B1,B8,B15,B22,B29,B36,B43,B50,B57,B64)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>84.571339699999996</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17">
+        <f t="shared" ref="F2:F6" si="0">SUM(B2,B9,B16,B23,B30,B37,B44,B51,B58,B65)/10</f>
+        <v>80.03760883999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1.24880249999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>1.2614333599999941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1.2079789000000001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>1.252068250000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.99620449999998995</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.6641213899999977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.19106969999999901</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.1569119199999969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>85.0212255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2.0670011999999902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1.27128000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.81426970000001098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.15157479999999099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>82.774359899999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1.1317720999999701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>1.5055034999999699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0.74419720000002998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.15053609999995299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>77.696858300000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1.17353389999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>1.21703870000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>0.59274439999995798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>0.158403000000021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>79.566089699999907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>1.4000806000000201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>1.2195263999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>0.64247119999998803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>0.15984740000004599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>75.759635799999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>1.04740850000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>1.33436610000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>0.57068879999997002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>0.14616230000001401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>94.926575499999899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>1.2526905000000801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>1.1914008999999599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0.57324329999994394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>0.15650970000001499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>73.498551399999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>1.24542829999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>1.20251240000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>0.567067800000018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>0.14748769999994199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>73.082500299999893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>1.0130717999999199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>1.1843183000000801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>0.56925560000001896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>0.15852710000001399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>73.478952300000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>1.03454420000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>1.1867572999999501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>0.57107140000004997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>0.149001399999974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BCE6AF-8186-421E-89AE-D21BEF79DAB7}">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17">
+        <f>SUM(B1,B8,B15,B22,B29,B36,B43,B50,B57,B64)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>235.92344439999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17">
+        <f t="shared" ref="F2:F6" si="0">SUM(B2,B9,B16,B23,B30,B37,B44,B51,B58,B65)/10</f>
+        <v>186.93451775999972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>3.7808248</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8169302899999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>3.4213032999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9850879199999669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2.9511428000000102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.992409580000027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.47642949999999401</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.40365629999998276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>254.28688579999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2.96649030000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>3.0202527999999802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>3.01968429999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.71815750000001799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>210.45097049999899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>2.4030338000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>2.6388700999999601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>1.5278362999999899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.330851400000028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>181.32051630000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>2.3804784000000101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>2.8316846999999798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>1.7752513000000301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>0.29145400000004401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>158.87788380000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>2.3448049000000899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>2.4114968999999702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>1.26514780000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>0.28873999999996097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>171.30003590000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>3.9412730999999801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>5.5099344000000201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>3.1224394000000699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>0.47522839999987798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>152.871288999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>2.0657579999999598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>2.4591680999999399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>1.39803870000014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>0.28626259999987202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>159.07680089999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>2.4629809000000402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>2.48101099999985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>1.61283550000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>0.3766399000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>172.80244109999899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>2.19764789999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>2.4629379999998902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>1.94085960000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>0.44374799999991399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>172.43490990000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>3.6260107999999001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>2.6142199000000801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>1.3108600999998901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>0.34905170000001801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>